--- a/xmind/xinmd-计划/2018/01月/01.29-02.04日志.xlsx
+++ b/xmind/xinmd-计划/2018/01月/01.29-02.04日志.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="51200" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="每日日志" sheetId="1" r:id="rId1"/>
+    <sheet name="项目待解决事项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>星期一</t>
     <rPh sb="0" eb="1">
@@ -281,34 +282,6 @@
   </si>
   <si>
     <t>TODO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百糯连消费计税&amp;补充打款部分数据推送</t>
-    <rPh sb="0" eb="1">
-      <t>bai'nuo'lian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao'fei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'shui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'chong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>da'kuan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>tui'song</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -669,12 +642,738 @@
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>整理《智能时代》大纲</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'neng'shi'dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'gang</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <rPh sb="0" eb="1">
+      <t>jin'du</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百糯连</t>
+    <rPh sb="0" eb="1">
+      <t>bai'nuo'lian</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian'ji</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月底固定计税推送问题</t>
+    <rPh sb="0" eb="1">
+      <t>yue'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'shui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月18日后日账单无法显示问题</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhang'dan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前定位到反作弊脚本执行有异常，导致apollo_monthy_bill表中的is_hit_anti字段为0，处于未执行状态</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'zuo'bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'ben</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'yi'chang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dao'zhi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>chu'yu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>wei'zhi'xing</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zhuang'tai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百糯连微信分享红包优惠券无法显示问题</t>
+    <rPh sb="0" eb="1">
+      <t>bai'nuo'lian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'xin'fen'xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hong'bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you'hui'quan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产项目</t>
+    <rPh sb="0" eb="1">
+      <t>fang'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决思路&amp;方案</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮福城补充打款部分未推送成功，</t>
+    <rPh sb="0" eb="1">
+      <t>chgao'fu'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da'kuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cheng'gong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于每个账户最后一条记录在第一次推送时，没有包含在时间内，需要重新推送，与原有推送发票重复，需要在xdb中重置状态，参考01.03的xdb执行命令</t>
+    <rPh sb="58" eb="59">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>de</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ming'ling</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看反作弊执行脚本，查找哪里有错误</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'zuo'bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao'ben</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cha'zhao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>na'li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you'cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认只是 百度钱包的红包无效</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bai'du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian'bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hong'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu'xiao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉产品以及运营当面沟通，确认复现步骤</t>
+    <rPh sb="0" eb="1">
+      <t>la</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chan'p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun'y</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dang'main</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐、通勤、到公司、听《硅谷来信》</t>
+    <rPh sb="0" eb="1">
+      <t>wu'can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao'gong's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ting</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gui'gu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lai'xin</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <rPh sb="0" eb="1">
+      <t>shui'jiao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目上线准备事项</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'xiang</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理百糯连1月份合并计税数据推送问题</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'nuo'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'shui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班、通勤、晚餐</t>
+    <rPh sb="0" eb="1">
+      <t>xia'ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan'c</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产项目遗留问题，同价推荐接口入参不一致问题</t>
+    <rPh sb="0" eb="1">
+      <t>fang'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong'jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru'can</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu'yi'zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理原有vpn无效问题</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与运营够沟通百糯连mis后台数据不一致问题</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yun'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'g'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bai'nuo'lian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'yi'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《智能时代》</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'dai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【Keep健身】、洗漱 </t>
+    <rPh sb="5" eb="6">
+      <t>jain's</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看【声临其境】</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床、洗漱、通勤</t>
+    <rPh sb="0" eb="1">
+      <t>qi'chuang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'q</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐、休息</t>
+    <rPh sb="0" eb="1">
+      <t>wu'can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiu'xi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班、通勤、晚餐、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理百糯连1月剩余5个账户计税推送问题</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'nuo'l'lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhuang'hu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'shui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理房产项目详情页城市id传入问题</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'qing'ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床、洗漱、通勤、午餐</t>
+    <rPh sb="9" eb="10">
+      <t>wu'can</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理百糯连补充打款问题与运营解答、处理房产项目问题</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bai'nuo'lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'kuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yun'y</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie'da</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang'c</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班、通勤、晚餐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看【琅琊榜-风起长林】5集</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看【琅琊榜-风起长林】2集</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给秋秋重装系统，由于操作失误，回复数据到凌晨2点</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qiu'qiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'zhuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ling'c</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决aglie中啄木鸟检测无法通过问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuo'mu'niao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian'ce</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -734,8 +1433,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,13 +1537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -837,8 +1553,32 @@
         <bgColor theme="5" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -922,16 +1662,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,86 +1753,152 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="个性色2" xfId="1" builtinId="33"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1337,7 +2177,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,10 +2208,10 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1410,133 +2250,139 @@
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
+      <c r="D3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="29" t="s">
+      <c r="C4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>0.375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="28" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="J5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="J6" s="25" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="J6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="37"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -1545,12 +2391,16 @@
       <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
@@ -1558,13 +2408,13 @@
       <c r="A11" s="8">
         <v>0.5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="J11" t="s">
@@ -1575,11 +2425,13 @@
       <c r="A12" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
@@ -1590,12 +2442,12 @@
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
@@ -1603,13 +2455,17 @@
       <c r="A14" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
     </row>
@@ -1617,13 +2473,13 @@
       <c r="A15" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
@@ -1631,13 +2487,13 @@
       <c r="A16" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
     </row>
@@ -1646,11 +2502,13 @@
         <v>0.625</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
@@ -1659,12 +2517,12 @@
       <c r="A18" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -1673,12 +2531,14 @@
       <c r="A19" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
@@ -1687,10 +2547,12 @@
       <c r="A20" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="43"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
@@ -1699,22 +2561,26 @@
       <c r="A21" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="43"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -1724,11 +2590,13 @@
         <v>0.75</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="43"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
@@ -1737,12 +2605,16 @@
       <c r="A24" s="5">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="43"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -1751,10 +2623,10 @@
       <c r="A25" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -1763,10 +2635,14 @@
       <c r="A26" s="5">
         <v>0.8125</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>85</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
@@ -1775,10 +2651,10 @@
       <c r="A27" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
@@ -1787,10 +2663,12 @@
       <c r="A28" s="5">
         <v>0.85416666666666696</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
@@ -1799,12 +2677,12 @@
       <c r="A29" s="8">
         <v>0.875</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
@@ -1813,10 +2691,14 @@
       <c r="A30" s="5">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
@@ -1825,10 +2707,12 @@
       <c r="A31" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="40"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
@@ -1837,12 +2721,14 @@
       <c r="A32" s="5">
         <v>0.9375</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
@@ -1851,10 +2737,12 @@
       <c r="A33" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="34"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
@@ -1864,17 +2752,19 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="35"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
@@ -1955,7 +2845,33 @@
       <c r="A61" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="44">
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B18:B22"/>
@@ -1963,26 +2879,219 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E32:E34"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="25" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
